--- a/리뷰 크롤링/coupang_itemreview_2023-08-10_15-27.xlsx
+++ b/리뷰 크롤링/coupang_itemreview_2023-08-10_15-27.xlsx
@@ -1,37 +1,99 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\StarDigital-YouthMall_Chatbot_and_Solution_Project\리뷰 크롤링\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D84C582-197C-4103-8238-49185ED4F19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+  <si>
+    <t>item_name</t>
+  </si>
+  <si>
+    <t>item_url</t>
+  </si>
+  <si>
+    <t>item_review</t>
+  </si>
+  <si>
+    <t>체리블라썸철릭원피스 여자 여성 생활한복 여름 봄 가을 빅사이즈 저고리 한복원피스 개량한복</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                            독도여행에   편하게 잘입었습니다                                    </t>
+  </si>
+  <si>
+    <t>물망초 안개꽃 면벨벳 철릭원피스 겨울 가을 생활한복 여자 한복원피스 저고리 추석 설 명절 여행 빅사이즈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                            맞춤 복처럼 크지도 작지도 않고 딱 맞아서 좋았어요길이감도 좋고 치마 두께감도 지금 입기 좋습니다옷위에 잠바 위에 걸치니 딱 좋았어요윗도리부분도 안감 처리 되어있어서 정성껏 만든 티가 팍 나는 옷이라 주위사람들도 이쁘다고 해서 기분  좋습니다                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                            엄마 보내드렸는데 입을만 하대요                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                            너무너무 맘에듭니다도깨비매 자주이용할거 같아요행사에 필요했는데배송은 역시 쿠팡입니다잘입겠습니다                                    </t>
+  </si>
+  <si>
+    <t>누빔 조끼철릭원피스 생활한복 겨울 여자 한복원피스 빅사이즈 설 명절 선물 저고리</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                            다른업체꺼 이런유형옷을 사봤는데 괜찮아서 비슷한옷을 고르다보니 사게 되었어요두껍지 않아서 봄가을 쌀쌀할때 입으면 좋겠어요제가 키도 크고 몸집도 있는 체형이라 8899사이즈 네이비로 샀는데 길이가 길고 잘 맞아요절에갈때 절복으로 입으려구요잘 만들어주셔서 감사합니다                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                            오늘 배송받았는데 최고입니다 입어보니까 딱 제옷이네요정말정말 잘입을게요옷감도 디자인도 편해요키가 큰편인데도 길이도 적당합니다                                    </t>
+  </si>
+  <si>
+    <t>도깨비매 말린장미철릭원피스 빅사이즈 가을 봄 여름 한복원피스 저고리</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                            사이즈를 크게 주문했음 팔을 접어서 입어야 하지만 그것도 괜찮음 사진으로 보이는 색감과 같음  에어컨이 빵빵한 실내에서 입기에 좋음 밖에 나가서 입기에는 더울듯함치마폭은 랩치마 다른 것에 비해서 좁은 편임                                    </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +108,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,156 +432,87 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="117.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>item_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>item_url</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>item_review</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>체리블라썸철릭원피스 여자 여성 생활한복 여름 봄 가을 빅사이즈 저고리 한복원피스 개량한복</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>https://www.coupang.com/vp/products/6598959847?itemId=14919792504&amp;vendorItemId=82155725060</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                            독도여행에   편하게 잘입었습니다                                    </t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>물망초 안개꽃 면벨벳 철릭원피스 겨울 가을 생활한복 여자 한복원피스 저고리 추석 설 명절 여행 빅사이즈</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>https://www.coupang.com/vp/products/6864154516?itemId=16401570543&amp;vendorItemId=83592755991</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                            맞춤 복처럼 크지도 작지도 않고 딱 맞아서 좋았어요길이감도 좋고 치마 두께감도 지금 입기 좋습니다옷위에 잠바 위에 걸치니 딱 좋았어요윗도리부분도 안감 처리 되어있어서 정성껏 만든 티가 팍 나는 옷이라 주위사람들도 이쁘다고 해서 기분  좋습니다                                    </t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>물망초 안개꽃 면벨벳 철릭원피스 겨울 가을 생활한복 여자 한복원피스 저고리 추석 설 명절 여행 빅사이즈</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>https://www.coupang.com/vp/products/6864154516?itemId=16401570543&amp;vendorItemId=83592755991</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                            엄마 보내드렸는데 입을만 하대요                                    </t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>물망초 안개꽃 면벨벳 철릭원피스 겨울 가을 생활한복 여자 한복원피스 저고리 추석 설 명절 여행 빅사이즈</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>https://www.coupang.com/vp/products/6864154516?itemId=16401570543&amp;vendorItemId=83592755991</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                            너무너무 맘에듭니다도깨비매 자주이용할거 같아요행사에 필요했는데배송은 역시 쿠팡입니다잘입겠습니다                                    </t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>누빔 조끼철릭원피스 생활한복 겨울 여자 한복원피스 빅사이즈 설 명절 선물 저고리</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>https://www.coupang.com/vp/products/6864115122?itemId=16401410112&amp;vendorItemId=83592599731</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                            다른업체꺼 이런유형옷을 사봤는데 괜찮아서 비슷한옷을 고르다보니 사게 되었어요두껍지 않아서 봄가을 쌀쌀할때 입으면 좋겠어요제가 키도 크고 몸집도 있는 체형이라 8899사이즈 네이비로 샀는데 길이가 길고 잘 맞아요절에갈때 절복으로 입으려구요잘 만들어주셔서 감사합니다                                    </t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>누빔 조끼철릭원피스 생활한복 겨울 여자 한복원피스 빅사이즈 설 명절 선물 저고리</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>https://www.coupang.com/vp/products/6864115122?itemId=16401410112&amp;vendorItemId=83592599731</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                            오늘 배송받았는데 최고입니다 입어보니까 딱 제옷이네요정말정말 잘입을게요옷감도 디자인도 편해요키가 큰편인데도 길이도 적당합니다                                    </t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>도깨비매 말린장미철릭원피스 빅사이즈 가을 봄 여름 한복원피스 저고리</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>https://www.coupang.com/vp/products/6442589481?itemId=13951101559&amp;vendorItemId=81212705845</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                            사이즈를 크게 주문했음 팔을 접어서 입어야 하지만 그것도 괜찮음 사진으로 보이는 색감과 같음  에어컨이 빵빵한 실내에서 입기에 좋음 밖에 나가서 입기에는 더울듯함치마폭은 랩치마 다른 것에 비해서 좁은 편임                                    </t>
-        </is>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>